--- a/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/04. Excel - Creating a basic dashboard/Material/Ex_Files_Dashboard_Excel2016/Exercise Files/Chapter02/LinkToPivot.xlsx
+++ b/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/04. Excel - Creating a basic dashboard/Material/Ex_Files_Dashboard_Excel2016/Exercise Files/Chapter02/LinkToPivot.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curt\Desktop\Exercise Files\Chapter02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Descargas\1. GIT\OnlineCourses\17. LinkedIn Learning\01. Microsoft Excel\01. Master Microsoft Excel - Learning Path\04. Excel - Creating a basic dashboard\Material\Ex_Files_Dashboard_Excel2016\Exercise Files\Chapter02\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2F2DD6-C95A-4A05-96E1-3BB87FEA067A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27195" windowHeight="14820"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="3" r:id="rId1"/>
@@ -17,11 +18,20 @@
     <sheet name="CityData" sheetId="2" r:id="rId3"/>
     <sheet name="RoomPT" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -227,10 +237,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
@@ -322,7 +332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
@@ -330,12 +340,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -346,11 +356,11 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Moneda" xfId="3" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -399,10 +409,10 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -648,7 +658,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Curt" refreshedDate="42759.988108101854" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="24">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Curt" refreshedDate="42759.988108101854" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="24" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="ServiceRevenue"/>
   </cacheSource>
@@ -670,7 +680,7 @@
     <cacheField name="Month" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="Revenue" numFmtId="164">
+    <cacheField name="Revenue" numFmtId="165">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="15834" maxValue="59446"/>
     </cacheField>
   </cacheFields>
@@ -832,7 +842,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -852,7 +862,7 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
@@ -896,53 +906,56 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="ServiceRevenue" displayName="ServiceRevenue" ref="A3:D28" totalsRowCount="1" headerRowDxfId="7">
-  <autoFilter ref="A3:D27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ServiceRevenue" displayName="ServiceRevenue" ref="A3:D28" totalsRowCount="1" headerRowDxfId="7">
+  <autoFilter ref="A3:D27" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Year" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Quarter"/>
-    <tableColumn id="3" name="Month"/>
-    <tableColumn id="5" name="Revenue" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="5" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Year" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Quarter"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Month"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Revenue" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="GuestCount" displayName="GuestCount" ref="A3:E164" totalsRowCount="1" headerRowDxfId="4">
-  <autoFilter ref="A3:E163"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="GuestCount" displayName="GuestCount" ref="A3:E164" totalsRowCount="1" headerRowDxfId="4">
+  <autoFilter ref="A3:E163" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Year" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Quarter"/>
-    <tableColumn id="3" name="City"/>
-    <tableColumn id="4" name="State"/>
-    <tableColumn id="5" name="Guests" totalsRowFunction="sum" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Year" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Quarter"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="City"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="State"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Guests" totalsRowFunction="sum" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="AvgDailyRate" displayName="AvgDailyRate" ref="H3:L164" totalsRowCount="1" headerRowDxfId="2">
-  <autoFilter ref="H3:L163"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AvgDailyRate" displayName="AvgDailyRate" ref="H3:L164" totalsRowCount="1" headerRowDxfId="2">
+  <autoFilter ref="H3:L163" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Year" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Quarter"/>
-    <tableColumn id="3" name="City"/>
-    <tableColumn id="4" name="State"/>
-    <tableColumn id="5" name="AvgDailyRate" totalsRowFunction="average" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Year" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Quarter"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="City"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="State"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="AvgDailyRate" totalsRowFunction="average" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1261,30 +1274,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="4"/>
-    </row>
-    <row r="5" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="4">
+        <f>GETPIVOTDATA("Revenue",RoomPT!$A$3,"Year",2015)</f>
+        <v>475579</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="6" t="s">
         <v>63</v>
       </c>
@@ -1292,35 +1308,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="4"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <f>GETPIVOTDATA("Revenue",RoomPT!$A$3,"Year",C6)</f>
+        <v>501864</v>
+      </c>
+      <c r="C6">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{CA3549FE-48AA-484F-A99D-AAC9E3296D17}">
+      <formula1>"2015, 2016"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:D28"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1334,7 +1361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -1348,7 +1375,7 @@
         <v>15834</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2015</v>
       </c>
@@ -1362,7 +1389,7 @@
         <v>37753</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2015</v>
       </c>
@@ -1376,7 +1403,7 @@
         <v>36952</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -1390,7 +1417,7 @@
         <v>58449</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2015</v>
       </c>
@@ -1404,7 +1431,7 @@
         <v>27764</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2015</v>
       </c>
@@ -1418,7 +1445,7 @@
         <v>23472</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2015</v>
       </c>
@@ -1432,7 +1459,7 @@
         <v>51503</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2015</v>
       </c>
@@ -1446,7 +1473,7 @@
         <v>46833</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2015</v>
       </c>
@@ -1460,7 +1487,7 @@
         <v>59446</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2015</v>
       </c>
@@ -1474,7 +1501,7 @@
         <v>21379</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2015</v>
       </c>
@@ -1488,7 +1515,7 @@
         <v>37933</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2015</v>
       </c>
@@ -1502,7 +1529,7 @@
         <v>58261</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2016</v>
       </c>
@@ -1516,7 +1543,7 @@
         <v>45648</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2016</v>
       </c>
@@ -1530,7 +1557,7 @@
         <v>30722</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2016</v>
       </c>
@@ -1544,7 +1571,7 @@
         <v>58381</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2016</v>
       </c>
@@ -1558,7 +1585,7 @@
         <v>54868</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2016</v>
       </c>
@@ -1572,7 +1599,7 @@
         <v>29964</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2016</v>
       </c>
@@ -1586,7 +1613,7 @@
         <v>40604</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2016</v>
       </c>
@@ -1600,7 +1627,7 @@
         <v>58372</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2016</v>
       </c>
@@ -1614,7 +1641,7 @@
         <v>32005</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2016</v>
       </c>
@@ -1628,7 +1655,7 @@
         <v>36853</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2016</v>
       </c>
@@ -1642,7 +1669,7 @@
         <v>31603</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2016</v>
       </c>
@@ -1656,7 +1683,7 @@
         <v>58416</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2016</v>
       </c>
@@ -1670,7 +1697,7 @@
         <v>24428</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>57</v>
       </c>
@@ -1689,24 +1716,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:L164"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1738,7 +1765,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -1770,7 +1797,7 @@
         <v>114.3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2015</v>
       </c>
@@ -1802,7 +1829,7 @@
         <v>108.12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2015</v>
       </c>
@@ -1834,7 +1861,7 @@
         <v>88.44</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -1866,7 +1893,7 @@
         <v>104.01</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2015</v>
       </c>
@@ -1898,7 +1925,7 @@
         <v>101.06</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2015</v>
       </c>
@@ -1930,7 +1957,7 @@
         <v>116.17</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2015</v>
       </c>
@@ -1962,7 +1989,7 @@
         <v>90.86</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2015</v>
       </c>
@@ -1994,7 +2021,7 @@
         <v>112.13</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2015</v>
       </c>
@@ -2026,7 +2053,7 @@
         <v>117.84</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2015</v>
       </c>
@@ -2058,7 +2085,7 @@
         <v>91.78</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2015</v>
       </c>
@@ -2090,7 +2117,7 @@
         <v>111.17</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2015</v>
       </c>
@@ -2122,7 +2149,7 @@
         <v>101.84</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2015</v>
       </c>
@@ -2154,7 +2181,7 @@
         <v>99.09</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2015</v>
       </c>
@@ -2186,7 +2213,7 @@
         <v>101.47</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2015</v>
       </c>
@@ -2218,7 +2245,7 @@
         <v>107.44</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2015</v>
       </c>
@@ -2250,7 +2277,7 @@
         <v>112.41</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2015</v>
       </c>
@@ -2282,7 +2309,7 @@
         <v>107.42</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2015</v>
       </c>
@@ -2314,7 +2341,7 @@
         <v>96.01</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2015</v>
       </c>
@@ -2346,7 +2373,7 @@
         <v>101.42</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2015</v>
       </c>
@@ -2378,7 +2405,7 @@
         <v>116.41</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2015</v>
       </c>
@@ -2410,7 +2437,7 @@
         <v>117.67</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2015</v>
       </c>
@@ -2442,7 +2469,7 @@
         <v>89.34</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2015</v>
       </c>
@@ -2474,7 +2501,7 @@
         <v>97.34</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2015</v>
       </c>
@@ -2506,7 +2533,7 @@
         <v>104.62</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2015</v>
       </c>
@@ -2538,7 +2565,7 @@
         <v>108.53</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2015</v>
       </c>
@@ -2570,7 +2597,7 @@
         <v>94.2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2015</v>
       </c>
@@ -2602,7 +2629,7 @@
         <v>94.93</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2015</v>
       </c>
@@ -2634,7 +2661,7 @@
         <v>110.51</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2015</v>
       </c>
@@ -2666,7 +2693,7 @@
         <v>87.22</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2015</v>
       </c>
@@ -2698,7 +2725,7 @@
         <v>111.19</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2015</v>
       </c>
@@ -2730,7 +2757,7 @@
         <v>108.36</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2015</v>
       </c>
@@ -2762,7 +2789,7 @@
         <v>86.62</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2015</v>
       </c>
@@ -2794,7 +2821,7 @@
         <v>90.76</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2015</v>
       </c>
@@ -2826,7 +2853,7 @@
         <v>107.18</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2015</v>
       </c>
@@ -2858,7 +2885,7 @@
         <v>88.42</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2015</v>
       </c>
@@ -2890,7 +2917,7 @@
         <v>92.07</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2015</v>
       </c>
@@ -2922,7 +2949,7 @@
         <v>104.96</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2015</v>
       </c>
@@ -2954,7 +2981,7 @@
         <v>88.07</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2015</v>
       </c>
@@ -2986,7 +3013,7 @@
         <v>96.93</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2015</v>
       </c>
@@ -3018,7 +3045,7 @@
         <v>112.82</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2015</v>
       </c>
@@ -3050,7 +3077,7 @@
         <v>113.58</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2015</v>
       </c>
@@ -3082,7 +3109,7 @@
         <v>107.92</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2015</v>
       </c>
@@ -3114,7 +3141,7 @@
         <v>91.07</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2015</v>
       </c>
@@ -3146,7 +3173,7 @@
         <v>111.36</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2015</v>
       </c>
@@ -3178,7 +3205,7 @@
         <v>98.35</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2015</v>
       </c>
@@ -3210,7 +3237,7 @@
         <v>89.32</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2015</v>
       </c>
@@ -3242,7 +3269,7 @@
         <v>106.47</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2015</v>
       </c>
@@ -3274,7 +3301,7 @@
         <v>92.34</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2015</v>
       </c>
@@ -3306,7 +3333,7 @@
         <v>96.29</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2015</v>
       </c>
@@ -3338,7 +3365,7 @@
         <v>106.6</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2015</v>
       </c>
@@ -3370,7 +3397,7 @@
         <v>102.46</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2015</v>
       </c>
@@ -3402,7 +3429,7 @@
         <v>85.73</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2015</v>
       </c>
@@ -3434,7 +3461,7 @@
         <v>106.01</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2015</v>
       </c>
@@ -3466,7 +3493,7 @@
         <v>94.31</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2015</v>
       </c>
@@ -3498,7 +3525,7 @@
         <v>85.27</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2015</v>
       </c>
@@ -3530,7 +3557,7 @@
         <v>109.92</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2015</v>
       </c>
@@ -3562,7 +3589,7 @@
         <v>109.83</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2015</v>
       </c>
@@ -3594,7 +3621,7 @@
         <v>114.85</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2015</v>
       </c>
@@ -3626,7 +3653,7 @@
         <v>117.72</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2015</v>
       </c>
@@ -3658,7 +3685,7 @@
         <v>109.58</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2015</v>
       </c>
@@ -3690,7 +3717,7 @@
         <v>106.02</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2015</v>
       </c>
@@ -3722,7 +3749,7 @@
         <v>102.56</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2015</v>
       </c>
@@ -3754,7 +3781,7 @@
         <v>90.95</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2015</v>
       </c>
@@ -3786,7 +3813,7 @@
         <v>93.61</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2015</v>
       </c>
@@ -3818,7 +3845,7 @@
         <v>100.15</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2015</v>
       </c>
@@ -3850,7 +3877,7 @@
         <v>109.91</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2015</v>
       </c>
@@ -3882,7 +3909,7 @@
         <v>97.19</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2015</v>
       </c>
@@ -3914,7 +3941,7 @@
         <v>100.97</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2015</v>
       </c>
@@ -3946,7 +3973,7 @@
         <v>117.82</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2015</v>
       </c>
@@ -3978,7 +4005,7 @@
         <v>104.37</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2015</v>
       </c>
@@ -4010,7 +4037,7 @@
         <v>88.08</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2015</v>
       </c>
@@ -4042,7 +4069,7 @@
         <v>87.55</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2015</v>
       </c>
@@ -4074,7 +4101,7 @@
         <v>90.93</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2015</v>
       </c>
@@ -4106,7 +4133,7 @@
         <v>110.2</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2015</v>
       </c>
@@ -4138,7 +4165,7 @@
         <v>107.91</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2015</v>
       </c>
@@ -4170,7 +4197,7 @@
         <v>93.12</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2015</v>
       </c>
@@ -4202,7 +4229,7 @@
         <v>105.86</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2015</v>
       </c>
@@ -4234,7 +4261,7 @@
         <v>85.87</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2015</v>
       </c>
@@ -4266,7 +4293,7 @@
         <v>117.93</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2015</v>
       </c>
@@ -4298,7 +4325,7 @@
         <v>87.79</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2016</v>
       </c>
@@ -4330,7 +4357,7 @@
         <v>103.18</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2016</v>
       </c>
@@ -4362,7 +4389,7 @@
         <v>91.33</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2016</v>
       </c>
@@ -4394,7 +4421,7 @@
         <v>115.57</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2016</v>
       </c>
@@ -4426,7 +4453,7 @@
         <v>85.14</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2016</v>
       </c>
@@ -4458,7 +4485,7 @@
         <v>106.04</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2016</v>
       </c>
@@ -4490,7 +4517,7 @@
         <v>109.91</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2016</v>
       </c>
@@ -4522,7 +4549,7 @@
         <v>88.55</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2016</v>
       </c>
@@ -4554,7 +4581,7 @@
         <v>90.13</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2016</v>
       </c>
@@ -4586,7 +4613,7 @@
         <v>108.13</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2016</v>
       </c>
@@ -4618,7 +4645,7 @@
         <v>87.64</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2016</v>
       </c>
@@ -4650,7 +4677,7 @@
         <v>94.66</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2016</v>
       </c>
@@ -4682,7 +4709,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2016</v>
       </c>
@@ -4714,7 +4741,7 @@
         <v>115.67</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2016</v>
       </c>
@@ -4746,7 +4773,7 @@
         <v>114.23</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2016</v>
       </c>
@@ -4778,7 +4805,7 @@
         <v>88.34</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2016</v>
       </c>
@@ -4810,7 +4837,7 @@
         <v>108.35</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2016</v>
       </c>
@@ -4842,7 +4869,7 @@
         <v>114.69</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2016</v>
       </c>
@@ -4874,7 +4901,7 @@
         <v>109.84</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2016</v>
       </c>
@@ -4906,7 +4933,7 @@
         <v>91.75</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2016</v>
       </c>
@@ -4938,7 +4965,7 @@
         <v>101.62</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2016</v>
       </c>
@@ -4970,7 +4997,7 @@
         <v>101.37</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2016</v>
       </c>
@@ -5002,7 +5029,7 @@
         <v>88.62</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2016</v>
       </c>
@@ -5034,7 +5061,7 @@
         <v>117.85</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2016</v>
       </c>
@@ -5066,7 +5093,7 @@
         <v>114.71</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2016</v>
       </c>
@@ -5098,7 +5125,7 @@
         <v>117.9</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2016</v>
       </c>
@@ -5130,7 +5157,7 @@
         <v>111.81</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2016</v>
       </c>
@@ -5162,7 +5189,7 @@
         <v>98.15</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2016</v>
       </c>
@@ -5194,7 +5221,7 @@
         <v>102.23</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2016</v>
       </c>
@@ -5226,7 +5253,7 @@
         <v>105.82</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2016</v>
       </c>
@@ -5258,7 +5285,7 @@
         <v>108.72</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2016</v>
       </c>
@@ -5290,7 +5317,7 @@
         <v>97.7</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2016</v>
       </c>
@@ -5322,7 +5349,7 @@
         <v>117.25</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2016</v>
       </c>
@@ -5354,7 +5381,7 @@
         <v>87.71</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2016</v>
       </c>
@@ -5386,7 +5413,7 @@
         <v>93.96</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2016</v>
       </c>
@@ -5418,7 +5445,7 @@
         <v>98.47</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2016</v>
       </c>
@@ -5450,7 +5477,7 @@
         <v>112.93</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2016</v>
       </c>
@@ -5482,7 +5509,7 @@
         <v>107.8</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2016</v>
       </c>
@@ -5514,7 +5541,7 @@
         <v>97.28</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2016</v>
       </c>
@@ -5546,7 +5573,7 @@
         <v>103.96</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2016</v>
       </c>
@@ -5578,7 +5605,7 @@
         <v>114.59</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2016</v>
       </c>
@@ -5610,7 +5637,7 @@
         <v>98.73</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2016</v>
       </c>
@@ -5642,7 +5669,7 @@
         <v>100.15</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2016</v>
       </c>
@@ -5674,7 +5701,7 @@
         <v>103.79</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2016</v>
       </c>
@@ -5706,7 +5733,7 @@
         <v>112.37</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2016</v>
       </c>
@@ -5738,7 +5765,7 @@
         <v>100.43</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2016</v>
       </c>
@@ -5770,7 +5797,7 @@
         <v>85.57</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2016</v>
       </c>
@@ -5802,7 +5829,7 @@
         <v>105.37</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2016</v>
       </c>
@@ -5834,7 +5861,7 @@
         <v>87.54</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2016</v>
       </c>
@@ -5866,7 +5893,7 @@
         <v>102.95</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2016</v>
       </c>
@@ -5898,7 +5925,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2016</v>
       </c>
@@ -5930,7 +5957,7 @@
         <v>105.36</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2016</v>
       </c>
@@ -5962,7 +5989,7 @@
         <v>92.24</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2016</v>
       </c>
@@ -5994,7 +6021,7 @@
         <v>94.5</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2016</v>
       </c>
@@ -6026,7 +6053,7 @@
         <v>98.78</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2016</v>
       </c>
@@ -6058,7 +6085,7 @@
         <v>94.65</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2016</v>
       </c>
@@ -6090,7 +6117,7 @@
         <v>107.37</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>2016</v>
       </c>
@@ -6122,7 +6149,7 @@
         <v>90.11</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>2016</v>
       </c>
@@ -6154,7 +6181,7 @@
         <v>100.81</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2016</v>
       </c>
@@ -6186,7 +6213,7 @@
         <v>111.78</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2016</v>
       </c>
@@ -6218,7 +6245,7 @@
         <v>105.34</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2016</v>
       </c>
@@ -6250,7 +6277,7 @@
         <v>88.63</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>2016</v>
       </c>
@@ -6282,7 +6309,7 @@
         <v>93.87</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>2016</v>
       </c>
@@ -6314,7 +6341,7 @@
         <v>93.89</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2016</v>
       </c>
@@ -6346,7 +6373,7 @@
         <v>107.76</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2016</v>
       </c>
@@ -6378,7 +6405,7 @@
         <v>105.45</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>2016</v>
       </c>
@@ -6410,7 +6437,7 @@
         <v>108.11</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>2016</v>
       </c>
@@ -6442,7 +6469,7 @@
         <v>95.69</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>2016</v>
       </c>
@@ -6474,7 +6501,7 @@
         <v>89.86</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>2016</v>
       </c>
@@ -6506,7 +6533,7 @@
         <v>94.24</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>2016</v>
       </c>
@@ -6538,7 +6565,7 @@
         <v>116.74</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>2016</v>
       </c>
@@ -6570,7 +6597,7 @@
         <v>115.82</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>2016</v>
       </c>
@@ -6602,7 +6629,7 @@
         <v>117.5</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>2016</v>
       </c>
@@ -6634,7 +6661,7 @@
         <v>87.1</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>2016</v>
       </c>
@@ -6666,7 +6693,7 @@
         <v>94.65</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>2016</v>
       </c>
@@ -6698,7 +6725,7 @@
         <v>114.39</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>2016</v>
       </c>
@@ -6730,7 +6757,7 @@
         <v>91.52</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>2016</v>
       </c>
@@ -6762,7 +6789,7 @@
         <v>114.11</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>2016</v>
       </c>
@@ -6794,7 +6821,7 @@
         <v>101.31</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>2016</v>
       </c>
@@ -6826,7 +6853,7 @@
         <v>109.62</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>2016</v>
       </c>
@@ -6858,7 +6885,7 @@
         <v>102.94</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>57</v>
       </c>
@@ -6885,22 +6912,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:F7"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>61</v>
       </c>
@@ -6908,7 +6935,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>58</v>
       </c>
@@ -6928,7 +6955,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2015</v>
       </c>
@@ -6948,7 +6975,7 @@
         <v>475579</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2016</v>
       </c>
@@ -6968,7 +6995,7 @@
         <v>501864</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>59</v>
       </c>
